--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4025163333333333</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N2">
-        <v>1.207549</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O2">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P2">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q2">
-        <v>0.4644115382542222</v>
+        <v>8.918076777811113</v>
       </c>
       <c r="R2">
-        <v>4.179703844287999</v>
+        <v>80.26269100030001</v>
       </c>
       <c r="S2">
-        <v>0.001948227821300694</v>
+        <v>0.03983291520200781</v>
       </c>
       <c r="T2">
-        <v>0.001948227821300694</v>
+        <v>0.03983291520200781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.37655666666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N3">
-        <v>43.12967</v>
+        <v>33.861648</v>
       </c>
       <c r="O3">
-        <v>0.5376220787283691</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P3">
-        <v>0.537622078728369</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q3">
-        <v>16.58724936967111</v>
+        <v>5.670159294437335</v>
       </c>
       <c r="R3">
-        <v>149.28524432704</v>
+        <v>51.03143364993601</v>
       </c>
       <c r="S3">
-        <v>0.06958427609771355</v>
+        <v>0.02532597329943984</v>
       </c>
       <c r="T3">
-        <v>0.06958427609771353</v>
+        <v>0.02532597329943984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.153770666666667</v>
+        <v>0.560947</v>
       </c>
       <c r="H4">
-        <v>3.461312</v>
+        <v>1.682841</v>
       </c>
       <c r="I4">
-        <v>0.1294297218267159</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J4">
-        <v>0.1294297218267159</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.96193566666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N4">
-        <v>35.885807</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O4">
-        <v>0.4473255222260004</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P4">
-        <v>0.4473255222260002</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q4">
-        <v>13.80133048875378</v>
+        <v>9.958286410433335</v>
       </c>
       <c r="R4">
-        <v>124.211974398784</v>
+        <v>89.62457769390001</v>
       </c>
       <c r="S4">
-        <v>0.05789721790770163</v>
+        <v>0.04447904946625244</v>
       </c>
       <c r="T4">
-        <v>0.05789721790770162</v>
+        <v>0.04447904946625245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>1.682841</v>
       </c>
       <c r="I5">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J5">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4025163333333333</v>
+        <v>11.287216</v>
       </c>
       <c r="N5">
-        <v>1.207549</v>
+        <v>33.861648</v>
       </c>
       <c r="O5">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P5">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q5">
-        <v>0.2257903296343333</v>
+        <v>6.331529953552</v>
       </c>
       <c r="R5">
-        <v>2.032112966709</v>
+        <v>56.98376958196801</v>
       </c>
       <c r="S5">
-        <v>0.0009472008461027149</v>
+        <v>0.02828000947091094</v>
       </c>
       <c r="T5">
-        <v>0.0009472008461027148</v>
+        <v>0.02828000947091095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.560947</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H6">
-        <v>1.682841</v>
+        <v>8.537003</v>
       </c>
       <c r="I6">
-        <v>0.06292690243138796</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J6">
-        <v>0.06292690243138796</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.37655666666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N6">
-        <v>43.12967</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O6">
-        <v>0.5376220787283691</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P6">
-        <v>0.537622078728369</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q6">
-        <v>8.064486332496665</v>
+        <v>50.51809467485557</v>
       </c>
       <c r="R6">
-        <v>72.58037699246999</v>
+        <v>454.6628520737001</v>
       </c>
       <c r="S6">
-        <v>0.03383089209310006</v>
+        <v>0.2256409124394673</v>
       </c>
       <c r="T6">
-        <v>0.03383089209310005</v>
+        <v>0.2256409124394673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.560947</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H7">
-        <v>1.682841</v>
+        <v>8.537003</v>
       </c>
       <c r="I7">
-        <v>0.06292690243138796</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J7">
-        <v>0.06292690243138796</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.96193566666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N7">
-        <v>35.885807</v>
+        <v>33.861648</v>
       </c>
       <c r="O7">
-        <v>0.4473255222260004</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P7">
-        <v>0.4473255222260002</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q7">
-        <v>6.710011926409667</v>
+        <v>32.11966561788267</v>
       </c>
       <c r="R7">
-        <v>60.39010733768699</v>
+        <v>289.076990560944</v>
       </c>
       <c r="S7">
-        <v>0.02814880949218519</v>
+        <v>0.1434636580004856</v>
       </c>
       <c r="T7">
-        <v>0.02814880949218519</v>
+        <v>0.1434636580004856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.837574333333333</v>
+        <v>0.11543</v>
       </c>
       <c r="H8">
-        <v>11.512723</v>
+        <v>0.34629</v>
       </c>
       <c r="I8">
-        <v>0.4304981854736105</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J8">
-        <v>0.4304981854736105</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4025163333333333</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N8">
-        <v>1.207549</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O8">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P8">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q8">
-        <v>1.544686349547444</v>
+        <v>2.049186465666667</v>
       </c>
       <c r="R8">
-        <v>13.902177145927</v>
+        <v>18.442678191</v>
       </c>
       <c r="S8">
-        <v>0.006480030476168686</v>
+        <v>0.00915276609000408</v>
       </c>
       <c r="T8">
-        <v>0.006480030476168685</v>
+        <v>0.009152766090004082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.837574333333333</v>
+        <v>0.11543</v>
       </c>
       <c r="H9">
-        <v>11.512723</v>
+        <v>0.34629</v>
       </c>
       <c r="I9">
-        <v>0.4304981854736105</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J9">
-        <v>0.4304981854736105</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.37655666666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N9">
-        <v>43.12967</v>
+        <v>33.861648</v>
       </c>
       <c r="O9">
-        <v>0.5376220787283691</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P9">
-        <v>0.537622078728369</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q9">
-        <v>55.17110486571222</v>
+        <v>1.30288334288</v>
       </c>
       <c r="R9">
-        <v>496.5399437914099</v>
+        <v>11.72595008592</v>
       </c>
       <c r="S9">
-        <v>0.2314453293631134</v>
+        <v>0.00581937597175357</v>
       </c>
       <c r="T9">
-        <v>0.2314453293631134</v>
+        <v>0.005819375971753571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.837574333333333</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H10">
-        <v>11.512723</v>
+        <v>11.055764</v>
       </c>
       <c r="I10">
-        <v>0.4304981854736105</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J10">
-        <v>0.4304981854736105</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.96193566666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N10">
-        <v>35.885807</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O10">
-        <v>0.4473255222260004</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P10">
-        <v>0.4473255222260002</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q10">
-        <v>45.90481729138455</v>
+        <v>65.4229748372889</v>
       </c>
       <c r="R10">
-        <v>413.143355622461</v>
+        <v>588.8067735356001</v>
       </c>
       <c r="S10">
-        <v>0.1925728256343284</v>
+        <v>0.2922141033188596</v>
       </c>
       <c r="T10">
-        <v>0.1925728256343283</v>
+        <v>0.2922141033188596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,356 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182783</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H11">
-        <v>0.548349</v>
+        <v>11.055764</v>
       </c>
       <c r="I11">
-        <v>0.02050455391884864</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J11">
-        <v>0.02050455391884864</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4025163333333333</v>
+        <v>11.287216</v>
       </c>
       <c r="N11">
-        <v>1.207549</v>
+        <v>33.861648</v>
       </c>
       <c r="O11">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P11">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q11">
-        <v>0.07357314295566666</v>
+        <v>41.59626543767467</v>
       </c>
       <c r="R11">
-        <v>0.662158286601</v>
+        <v>374.366388939072</v>
       </c>
       <c r="S11">
-        <v>0.0003086427278391587</v>
+        <v>0.1857912367408188</v>
       </c>
       <c r="T11">
-        <v>0.0003086427278391587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.182783</v>
-      </c>
-      <c r="H12">
-        <v>0.548349</v>
-      </c>
-      <c r="I12">
-        <v>0.02050455391884864</v>
-      </c>
-      <c r="J12">
-        <v>0.02050455391884864</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>14.37655666666667</v>
-      </c>
-      <c r="N12">
-        <v>43.12967</v>
-      </c>
-      <c r="O12">
-        <v>0.5376220787283691</v>
-      </c>
-      <c r="P12">
-        <v>0.537622078728369</v>
-      </c>
-      <c r="Q12">
-        <v>2.627790157203333</v>
-      </c>
-      <c r="R12">
-        <v>23.65011141483</v>
-      </c>
-      <c r="S12">
-        <v>0.01102370090124933</v>
-      </c>
-      <c r="T12">
-        <v>0.01102370090124933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.182783</v>
-      </c>
-      <c r="H13">
-        <v>0.548349</v>
-      </c>
-      <c r="I13">
-        <v>0.02050455391884864</v>
-      </c>
-      <c r="J13">
-        <v>0.02050455391884864</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.96193566666667</v>
-      </c>
-      <c r="N13">
-        <v>35.885807</v>
-      </c>
-      <c r="O13">
-        <v>0.4473255222260004</v>
-      </c>
-      <c r="P13">
-        <v>0.4473255222260002</v>
-      </c>
-      <c r="Q13">
-        <v>2.186438486960333</v>
-      </c>
-      <c r="R13">
-        <v>19.677946382643</v>
-      </c>
-      <c r="S13">
-        <v>0.00917221028976015</v>
-      </c>
-      <c r="T13">
-        <v>0.009172210289760147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.179188666666666</v>
-      </c>
-      <c r="H14">
-        <v>9.537565999999998</v>
-      </c>
-      <c r="I14">
-        <v>0.3566406363494372</v>
-      </c>
-      <c r="J14">
-        <v>0.3566406363494371</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.4025163333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.207549</v>
-      </c>
-      <c r="O14">
-        <v>0.01505239904563061</v>
-      </c>
-      <c r="P14">
-        <v>0.01505239904563061</v>
-      </c>
-      <c r="Q14">
-        <v>1.279675365081555</v>
-      </c>
-      <c r="R14">
-        <v>11.517078285734</v>
-      </c>
-      <c r="S14">
-        <v>0.005368297174219363</v>
-      </c>
-      <c r="T14">
-        <v>0.005368297174219361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.179188666666666</v>
-      </c>
-      <c r="H15">
-        <v>9.537565999999998</v>
-      </c>
-      <c r="I15">
-        <v>0.3566406363494372</v>
-      </c>
-      <c r="J15">
-        <v>0.3566406363494371</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>14.37655666666667</v>
-      </c>
-      <c r="N15">
-        <v>43.12967</v>
-      </c>
-      <c r="O15">
-        <v>0.5376220787283691</v>
-      </c>
-      <c r="P15">
-        <v>0.537622078728369</v>
-      </c>
-      <c r="Q15">
-        <v>45.70578602035777</v>
-      </c>
-      <c r="R15">
-        <v>411.3520741832199</v>
-      </c>
-      <c r="S15">
-        <v>0.1917378802731927</v>
-      </c>
-      <c r="T15">
-        <v>0.1917378802731927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.179188666666666</v>
-      </c>
-      <c r="H16">
-        <v>9.537565999999998</v>
-      </c>
-      <c r="I16">
-        <v>0.3566406363494372</v>
-      </c>
-      <c r="J16">
-        <v>0.3566406363494371</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.96193566666667</v>
-      </c>
-      <c r="N16">
-        <v>35.885807</v>
-      </c>
-      <c r="O16">
-        <v>0.4473255222260004</v>
-      </c>
-      <c r="P16">
-        <v>0.4473255222260002</v>
-      </c>
-      <c r="Q16">
-        <v>38.02925030286244</v>
-      </c>
-      <c r="R16">
-        <v>342.263252725762</v>
-      </c>
-      <c r="S16">
-        <v>0.1595344589020251</v>
-      </c>
-      <c r="T16">
-        <v>0.159534458902025</v>
+        <v>0.1857912367408188</v>
       </c>
     </row>
   </sheetData>
